--- a/code/code/borui/app/企业版/MainProgram/bin/Debug/tdmb/其他出库单模板.xlsx
+++ b/code/code/borui/app/企业版/MainProgram/bin/Debug/tdmb/其他出库单模板.xlsx
@@ -95,11 +95,6 @@
     <t>其他出库单</t>
   </si>
   <si>
-    <t xml:space="preserve">单据编码：[1]      使用部门：                
-摘要：[2]          用途：                                    </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">库管：                        领料人：                                审核人：                                                  
 制单人： [3]                  领料日期：                              审核日期：
                                                                                                         </t>
@@ -115,6 +110,11 @@
   </si>
   <si>
     <t>行号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据编号：[1]    项目编号：[5]    生产编号：[6]
+使用部门：    用途：    摘要：[2]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="2" spans="1:10" ht="29.1" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -1187,10 +1187,10 @@
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1396,14 +1396,14 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="45" customHeight="1">
       <c r="A19" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
